--- a/data/word_data_v2.xlsx
+++ b/data/word_data_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DA1019-EFC0-4B27-A60A-9BB7487196AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF89DD-C302-4BB9-9BB3-F2D03752DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F329000F-E461-4B1D-B481-23E794318244}"/>
   </bookViews>
@@ -37,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>english</t>
   </si>
   <si>
-    <t>mampula</t>
-  </si>
-  <si>
     <t>mampulan symbol</t>
   </si>
   <si>
-    <t>mampulan info</t>
-  </si>
-  <si>
     <t>part of speech English</t>
   </si>
   <si>
@@ -99,106 +93,46 @@
     <t>noun</t>
   </si>
   <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>lano</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;lano&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>roton</t>
-  </si>
-  <si>
-    <t>boton</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;boton&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>poso</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;pohoso&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>duko</t>
   </si>
   <si>
-    <t>Old Mampulan &lt;i&gt;duko&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>nangan</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;nangan&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>naqan</t>
-  </si>
-  <si>
-    <t>ziun</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;ziun&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;mat&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>un verb</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>invisible</t>
-  </si>
-  <si>
-    <t>visualize</t>
-  </si>
-  <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>Mampulan &lt;i&gt;mat&lt;/i&gt; (eye)</t>
-  </si>
-  <si>
-    <t>matkatong</t>
-  </si>
-  <si>
-    <t>Mampulan &lt;i&gt;mat&lt;/i&gt; (eye) + &lt;i&gt;kat&lt;/i&gt; (can)</t>
-  </si>
-  <si>
-    <t>adjective</t>
-  </si>
-  <si>
-    <t>madun</t>
-  </si>
-  <si>
-    <t>Old Mampulan &lt;i&gt;hawon&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>(1) katung</t>
-  </si>
-  <si>
-    <t>katuq</t>
+    <t>mampulan</t>
+  </si>
+  <si>
+    <t>(uncountable) A substance (of molecular formula H2O) found at room temperature and pressure as a clear liquid; it is present naturally as rain, and found in rivers, lakes and seas; its solid form is ice and its gaseous form is steam.</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;hawon&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Water is essential to life on Earth.</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>apo</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>bato</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>bitan</t>
+  </si>
+  <si>
+    <t>mordon</t>
   </si>
 </sst>
 </file>
@@ -228,9 +162,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -240,14 +183,245 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -285,16 +459,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -628,11 +792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FDFE4-4258-4B40-BFFF-C2968F726E9A}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,291 +804,152 @@
     <col min="1" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/word_data_v2.xlsx
+++ b/data/word_data_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF89DD-C302-4BB9-9BB3-F2D03752DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F103C38-27D6-4D69-BCF9-7700E5498AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F329000F-E461-4B1D-B481-23E794318244}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
   <si>
     <t>english</t>
   </si>
@@ -133,6 +133,351 @@
   </si>
   <si>
     <t>mordon</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>denon</t>
+  </si>
+  <si>
+    <t>takun</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>un verb</t>
+  </si>
+  <si>
+    <t>From Old Mampulan</t>
+  </si>
+  <si>
+    <t>antak</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>howl</t>
+  </si>
+  <si>
+    <t>dire</t>
+  </si>
+  <si>
+    <t>gobble</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>wounun</t>
+  </si>
+  <si>
+    <t>wounang</t>
+  </si>
+  <si>
+    <t>wonkainun</t>
+  </si>
+  <si>
+    <t>wounmedan</t>
+  </si>
+  <si>
+    <t>wounaq</t>
+  </si>
+  <si>
+    <t>fang</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>pangil</t>
+  </si>
+  <si>
+    <t>pangilang</t>
+  </si>
+  <si>
+    <t>pangung</t>
+  </si>
+  <si>
+    <t>fortan</t>
+  </si>
+  <si>
+    <t>paqil</t>
+  </si>
+  <si>
+    <t>paqilaq</t>
+  </si>
+  <si>
+    <t>paquq</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;woun&lt;/i&gt; (&amp;quot;wolf&amp;quot;) + &lt;i&gt;medan&lt;/i&gt; (&amp;quot;metal&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;awon&lt;/i&gt; (&amp;quot;water&amp;quot;) + &lt;i&gt;takun&lt;/i&gt; (&amp;quot;to run&amp;quot;)</t>
+  </si>
+  <si>
+    <t>ng adjective</t>
+  </si>
+  <si>
+    <t>ung adjective</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Pangil&lt;/i&gt;, the Wolf Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Pangil&lt;/i&gt;, the Wolf Legend of Mampulan. Displaced Old Mampulan word &lt;i&gt;fortanong&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>woun</t>
+  </si>
+  <si>
+    <t>Possibly from sounds a wolf makes</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;woun&lt;/i&gt; (&amp;quot;wolf&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;woun&lt;/i&gt; (&amp;quot;wolf&amp;quot;) + &lt;i&gt;kainun&lt;/i&gt; (&amp;quot;to eat&amp;quot;)</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>cunning</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>trickster</t>
+  </si>
+  <si>
+    <t>benevolent</t>
+  </si>
+  <si>
+    <t>phosphorus</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>tuman</t>
+  </si>
+  <si>
+    <t>tumaiteng</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;tuman sa nite&lt;/i&gt; (&amp;quot;fox-like&amp;quot;)</t>
+  </si>
+  <si>
+    <t>tumaiteq</t>
+  </si>
+  <si>
+    <t>tumawan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;tuman&lt;/i&gt; (&amp;quot;fox&amp;quot;) + &lt;i&gt;wan&lt;/i&gt; (&amp;quot;person&amp;quot;)</t>
+  </si>
+  <si>
+    <t>tumanili</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;tuman&lt;/i&gt; (&amp;quot;fox&amp;quot;) + &lt;i&gt;hili&lt;/i&gt; (&amp;quot;wish&amp;quot;)</t>
+  </si>
+  <si>
+    <t>tumaniling</t>
+  </si>
+  <si>
+    <t>tumaniliq</t>
+  </si>
+  <si>
+    <t>benevolence</t>
+  </si>
+  <si>
+    <t>kopon</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;tuman&lt;/i&gt; (&amp;quot;fox&amp;quot;) + &lt;i&gt;kopon&lt;/i&gt; (&amp;quot;powder&amp;quot;)</t>
+  </si>
+  <si>
+    <t>tumankopon</t>
+  </si>
+  <si>
+    <t>muzzle</t>
+  </si>
+  <si>
+    <t>nuslo</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Nuslo&lt;/i&gt;, the Fox Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>raccoon</t>
+  </si>
+  <si>
+    <t>rouson</t>
+  </si>
+  <si>
+    <t>deception</t>
+  </si>
+  <si>
+    <t>resourceful</t>
+  </si>
+  <si>
+    <t>dexterity</t>
+  </si>
+  <si>
+    <t>sly</t>
+  </si>
+  <si>
+    <t>trickery</t>
+  </si>
+  <si>
+    <t>sinister</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>manuscript</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>shorun</t>
+  </si>
+  <si>
+    <t>run verb</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;rouson&lt;/i&gt; (&amp;quot;raccoon&amp;quot;) + &lt;i&gt;sho&lt;/i&gt; (&amp;quot;to write&amp;quot;)</t>
+  </si>
+  <si>
+    <t>rousonsho</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;padang rouson&lt;/i&gt; (&amp;quot;bad raccoon&amp;quot;)</t>
+  </si>
+  <si>
+    <t>padrouson</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>taspan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Taspan&lt;/i&gt;, the Raccoon Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Orena&lt;/i&gt;, the Rabbit Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Martan&lt;/i&gt;, the Turtle Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Fortorun&lt;/i&gt;, the Bear Legend of Mampulan</t>
+  </si>
+  <si>
+    <t>orena</t>
+  </si>
+  <si>
+    <t>martan</t>
+  </si>
+  <si>
+    <t>fortorun</t>
+  </si>
+  <si>
+    <t>arār</t>
+  </si>
+  <si>
+    <t>ara-r</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>kainun</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;Arār&lt;/i&gt;, the Lion Legend of Mampulan</t>
   </si>
 </sst>
 </file>
@@ -191,57 +536,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0"/>
@@ -349,126 +644,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,16 +967,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FDFE4-4258-4B40-BFFF-C2968F726E9A}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="5" width="18.28515625" style="1"/>
+    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -869,6 +1047,18 @@
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -877,6 +1067,18 @@
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -885,6 +1087,18 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -893,6 +1107,18 @@
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -901,6 +1127,18 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -909,6 +1147,18 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -917,6 +1167,18 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -925,31 +1187,765 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+  <conditionalFormatting sqref="A36:A1048576 A2:A34">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/word_data_v2.xlsx
+++ b/data/word_data_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F103C38-27D6-4D69-BCF9-7700E5498AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81690DD0-2BAB-42D1-BC8C-2BD312BD4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F329000F-E461-4B1D-B481-23E794318244}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="316">
   <si>
     <t>english</t>
   </si>
@@ -156,9 +156,6 @@
     <t>bu</t>
   </si>
   <si>
-    <t>ba</t>
-  </si>
-  <si>
     <t>denon</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>From Old Mampulan</t>
   </si>
   <si>
-    <t>antak</t>
-  </si>
-  <si>
     <t>river</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
     <t>From &lt;i&gt;padang rouson&lt;/i&gt; (&amp;quot;bad raccoon&amp;quot;)</t>
   </si>
   <si>
-    <t>padrouson</t>
-  </si>
-  <si>
     <t>mask</t>
   </si>
   <si>
@@ -478,6 +469,522 @@
   </si>
   <si>
     <t>From &lt;i&gt;Arār&lt;/i&gt;, the Lion Legend of Mampulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>amphi-</t>
+  </si>
+  <si>
+    <t>ambi-</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>re-</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>ante-</t>
+  </si>
+  <si>
+    <t>pre-</t>
+  </si>
+  <si>
+    <t>post-</t>
+  </si>
+  <si>
+    <t>contra-</t>
+  </si>
+  <si>
+    <t>counter-</t>
+  </si>
+  <si>
+    <t>anti-</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>auto-</t>
+  </si>
+  <si>
+    <t>self-</t>
+  </si>
+  <si>
+    <t>-er</t>
+  </si>
+  <si>
+    <t>-or</t>
+  </si>
+  <si>
+    <t>one who does</t>
+  </si>
+  <si>
+    <t>circum-</t>
+  </si>
+  <si>
+    <t>peri-</t>
+  </si>
+  <si>
+    <t>out-</t>
+  </si>
+  <si>
+    <t>extra-</t>
+  </si>
+  <si>
+    <t>intra-</t>
+  </si>
+  <si>
+    <t>in-</t>
+  </si>
+  <si>
+    <t>endo-</t>
+  </si>
+  <si>
+    <t>in the middle of</t>
+  </si>
+  <si>
+    <t>mid-</t>
+  </si>
+  <si>
+    <t>un-</t>
+  </si>
+  <si>
+    <t>im-</t>
+  </si>
+  <si>
+    <t>dis-</t>
+  </si>
+  <si>
+    <t>lin-</t>
+  </si>
+  <si>
+    <t>zai-</t>
+  </si>
+  <si>
+    <t>-bin</t>
+  </si>
+  <si>
+    <t>-pus</t>
+  </si>
+  <si>
+    <t>fe-</t>
+  </si>
+  <si>
+    <t>jai-</t>
+  </si>
+  <si>
+    <t>-wan</t>
+  </si>
+  <si>
+    <t>son-</t>
+  </si>
+  <si>
+    <t>las-</t>
+  </si>
+  <si>
+    <t>-chu</t>
+  </si>
+  <si>
+    <t>nai-</t>
+  </si>
+  <si>
+    <t>de-</t>
+  </si>
+  <si>
+    <t>il-</t>
+  </si>
+  <si>
+    <t>ex-</t>
+  </si>
+  <si>
+    <t>-free</t>
+  </si>
+  <si>
+    <t>-less</t>
+  </si>
+  <si>
+    <t>sur-</t>
+  </si>
+  <si>
+    <t>hyper-</t>
+  </si>
+  <si>
+    <t>over-</t>
+  </si>
+  <si>
+    <t>super-</t>
+  </si>
+  <si>
+    <t>inter-</t>
+  </si>
+  <si>
+    <t>intro-</t>
+  </si>
+  <si>
+    <t>macro-</t>
+  </si>
+  <si>
+    <t>all-</t>
+  </si>
+  <si>
+    <t>micro-</t>
+  </si>
+  <si>
+    <t>omni-</t>
+  </si>
+  <si>
+    <t>pan-</t>
+  </si>
+  <si>
+    <t>mal-</t>
+  </si>
+  <si>
+    <t>mis-</t>
+  </si>
+  <si>
+    <t>dys-</t>
+  </si>
+  <si>
+    <t>cis-</t>
+  </si>
+  <si>
+    <t>co-</t>
+  </si>
+  <si>
+    <t>crypto-</t>
+  </si>
+  <si>
+    <t>down-</t>
+  </si>
+  <si>
+    <t>trans-</t>
+  </si>
+  <si>
+    <t>homo-</t>
+  </si>
+  <si>
+    <t>hetero-</t>
+  </si>
+  <si>
+    <t>g adjective</t>
+  </si>
+  <si>
+    <t>padrousong</t>
+  </si>
+  <si>
+    <t>padrousoq</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>aunak</t>
+  </si>
+  <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>linbitan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;lin&lt;/i&gt; (&amp;quot;both&amp;quot;) + &lt;i&gt;bitan&lt;/i&gt; (&amp;quot;life&amp;quot;)</t>
+  </si>
+  <si>
+    <t>antebellum</t>
+  </si>
+  <si>
+    <t>trounbin</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>troun</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;troun&lt;/i&gt; (&amp;quot;war&amp;quot;) + &lt;i&gt;bin&lt;/i&gt; (&amp;quot;before&amp;quot;)</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>pein</t>
+  </si>
+  <si>
+    <t>gapein</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;ga&lt;/i&gt; (&amp;quot;study&amp;quot;) + &lt;i&gt;pein&lt;/i&gt; (&amp;quot;place&amp;quot;)</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>gawan</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;ga&lt;/i&gt; (&amp;quot;study&amp;quot;) + &lt;i&gt;wan&lt;/i&gt; (&amp;quot;person&amp;quot;)</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>sabun</t>
+  </si>
+  <si>
+    <t>contradict</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;fe-&lt;/i&gt; (&amp;quot;against&amp;quot;) + &lt;i&gt;sabun&lt;/i&gt; (&amp;quot;say&amp;quot;)</t>
+  </si>
+  <si>
+    <t>fesabun</t>
+  </si>
+  <si>
+    <t>rou-</t>
+  </si>
+  <si>
+    <t>postbellum</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;troun&lt;/i&gt; (&amp;quot;war&amp;quot;) + &lt;i&gt;pus&lt;/i&gt; (&amp;quot;after&amp;quot;)</t>
+  </si>
+  <si>
+    <t>trounpus</t>
+  </si>
+  <si>
+    <t>post-war</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>wano</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;woun&lt;/i&gt; (&amp;quot;wolf&amp;quot;)</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>panit</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>cavity</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>punong</t>
+  </si>
+  <si>
+    <t>punoq</t>
+  </si>
+  <si>
+    <t>tabana</t>
+  </si>
+  <si>
+    <t>Perhaps related to &lt;i&gt;puna&lt;/i&gt; (&amp;quot;hole&amp;quot;)</t>
+  </si>
+  <si>
+    <t>puno</t>
+  </si>
+  <si>
+    <t>makro-</t>
+  </si>
+  <si>
+    <t>maikro-</t>
+  </si>
+  <si>
+    <t>zen-</t>
+  </si>
+  <si>
+    <t>hait-</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>from demei (without)</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>klon</t>
+  </si>
+  <si>
+    <t>odor</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>sano</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>sanwer</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;sano&lt;/i&gt; (&amp;quot;nose&amp;quot;) + &lt;i&gt;air&lt;/i&gt; (&amp;quot;her&amp;quot;)</t>
+  </si>
+  <si>
+    <t>odorless</t>
+  </si>
+  <si>
+    <t>dem-</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;dem-&lt;/i&gt; (&amp;quot;without&amp;quot;) + &lt;i&gt;sano&lt;/i&gt; (&amp;quot;nose&amp;quot;) + &lt;i&gt;air&lt;/i&gt; (&amp;quot;her&amp;quot;)</t>
+  </si>
+  <si>
+    <t>colorless</t>
+  </si>
+  <si>
+    <t>demsanwerung</t>
+  </si>
+  <si>
+    <t>demsanweruq</t>
+  </si>
+  <si>
+    <t>demklong</t>
+  </si>
+  <si>
+    <t>demklonq</t>
+  </si>
+  <si>
+    <t>heartless</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;dem-&lt;/i&gt; (&amp;quot;without&amp;quot;) + &lt;i&gt;klor&lt;/i&gt; (&amp;quot;color&amp;quot;)</t>
+  </si>
+  <si>
+    <t>dempaing</t>
+  </si>
+  <si>
+    <t>dempaiq</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;dem-&lt;/i&gt; (&amp;quot;without&amp;quot;) + &lt;i&gt;pain&lt;/i&gt; (&amp;quot;heart&amp;quot;)</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>kuwer</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>pung</t>
+  </si>
+  <si>
+    <t>ekang</t>
+  </si>
+  <si>
+    <t>alang</t>
+  </si>
+  <si>
+    <t>lunung</t>
+  </si>
+  <si>
+    <t>bugung</t>
+  </si>
+  <si>
+    <t>baileng</t>
+  </si>
+  <si>
+    <t>kurong</t>
+  </si>
+  <si>
+    <t>buting</t>
+  </si>
+  <si>
+    <t>pinkung</t>
+  </si>
+  <si>
+    <t>oboklong</t>
+  </si>
+  <si>
+    <t>inding</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>oboun</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;kurong-&lt;/i&gt; (&amp;quot;black&amp;quot;) + &lt;i&gt;her&lt;/i&gt; (&amp;quot;air&amp;quot;)</t>
+  </si>
+  <si>
+    <t>Compare &lt;i&gt;puna&lt;/i&gt; (&amp;quot;hole&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From Human Language &lt;i&gt;pink&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>oboun (ash) + klon (color)</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;oboun-&lt;/i&gt; (&amp;quot;ash&amp;quot;) + &lt;i&gt;klon&lt;/i&gt; (&amp;quot;color&amp;quot;)</t>
   </si>
 </sst>
 </file>
@@ -499,12 +1006,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -528,15 +1041,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -967,11 +1602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FDFE4-4258-4B40-BFFF-C2968F726E9A}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1077,7 +1712,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1097,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1117,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1137,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1157,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1197,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1217,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1237,7 +1872,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1245,10 +1880,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1257,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1265,10 +1900,10 @@
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
@@ -1277,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1285,434 +1920,434 @@
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
@@ -1721,162 +2356,165 @@
         <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
@@ -1885,18 +2523,18 @@
         <v>17</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -1905,40 +2543,1222 @@
         <v>17</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>146</v>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A77 A80:A1048576 A2:A35">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B78 B81:B1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A1048576 A2:A34">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3046AB7C-2C90-4738-ACC8-E51C77FD8D3C}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
@@ -1948,18 +3768,5 @@
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3046AB7C-2C90-4738-ACC8-E51C77FD8D3C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/word_data_v2.xlsx
+++ b/data/word_data_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81690DD0-2BAB-42D1-BC8C-2BD312BD4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D0D740-51EA-4367-B884-B61EA922BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F329000F-E461-4B1D-B481-23E794318244}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Affixes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="495">
   <si>
     <t>english</t>
   </si>
@@ -306,9 +307,6 @@
     <t>clever</t>
   </si>
   <si>
-    <t>trickster</t>
-  </si>
-  <si>
     <t>benevolent</t>
   </si>
   <si>
@@ -819,9 +817,6 @@
     <t>maikro-</t>
   </si>
   <si>
-    <t>zen-</t>
-  </si>
-  <si>
     <t>hait-</t>
   </si>
   <si>
@@ -985,6 +980,549 @@
   </si>
   <si>
     <t>From &lt;i&gt;oboun-&lt;/i&gt; (&amp;quot;ash&amp;quot;) + &lt;i&gt;klon&lt;/i&gt; (&amp;quot;color&amp;quot;)</t>
+  </si>
+  <si>
+    <t>taloy</t>
+  </si>
+  <si>
+    <t>taloyun</t>
+  </si>
+  <si>
+    <t>awak</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;aunak&lt;/i&gt; (&amp;quot;river&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;taloy&lt;/i&gt; (&amp;quot;flow&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From Eagle Language &lt;i&gt;nagan&lt;/i&gt; (&amp;quot;flow&amp;quot;)</t>
+  </si>
+  <si>
+    <t>nagan</t>
+  </si>
+  <si>
+    <t>pai</t>
+  </si>
+  <si>
+    <t>landon</t>
+  </si>
+  <si>
+    <t>lupan</t>
+  </si>
+  <si>
+    <t>From Old Mampulan &lt;i&gt;don&lt;/i&gt; (&amp;quot;earth&amp;quot;) + &lt;i&gt;mapa&lt;/i&gt; from Eagle Language (&amp;quot;earth&amp;quot;)</t>
+  </si>
+  <si>
+    <t>dommap</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;tuman&lt;/i&gt; (&amp;quot;fox&amp;quot;) + &lt;i&gt;brain&lt;/i&gt; (&amp;quot;ati&amp;quot;)</t>
+  </si>
+  <si>
+    <t>tumating</t>
+  </si>
+  <si>
+    <t>tumatiq</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;rouson&lt;/i&gt; (&amp;quot;raccoon&amp;quot;) + &lt;i&gt;-nas&lt;/i&gt; (&amp;quot;the state/quality/measure&amp;quot;)</t>
+  </si>
+  <si>
+    <t>rosonnas</t>
+  </si>
+  <si>
+    <t>puq</t>
+  </si>
+  <si>
+    <t>ekaq</t>
+  </si>
+  <si>
+    <t>alaq</t>
+  </si>
+  <si>
+    <t>lunuq</t>
+  </si>
+  <si>
+    <t>buguq</t>
+  </si>
+  <si>
+    <t>indiq</t>
+  </si>
+  <si>
+    <t>baileq</t>
+  </si>
+  <si>
+    <t>kuroq</t>
+  </si>
+  <si>
+    <t>butiq</t>
+  </si>
+  <si>
+    <t>pinkuq</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>itoka</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>To one another; one to the other; signifies that a verb applies to two or more entities both as subjects and as direct objects:</t>
+  </si>
+  <si>
+    <t>one another</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>woka</t>
+  </si>
+  <si>
+    <t>special adjective</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;I to woka-&lt;/i&gt; (&amp;quot;one and other&amp;quot;)</t>
+  </si>
+  <si>
+    <t>lasduko</t>
+  </si>
+  <si>
+    <t>exsanguination</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>exceed</t>
+  </si>
+  <si>
+    <t>emit</t>
+  </si>
+  <si>
+    <t>eject</t>
+  </si>
+  <si>
+    <t>eradication</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>ecstatic</t>
+  </si>
+  <si>
+    <t>dystopia</t>
+  </si>
+  <si>
+    <t>malinfluence</t>
+  </si>
+  <si>
+    <t>maleffect</t>
+  </si>
+  <si>
+    <t>malodor</t>
+  </si>
+  <si>
+    <t>malnourished</t>
+  </si>
+  <si>
+    <t>malfunction</t>
+  </si>
+  <si>
+    <t>malform</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>malpractice</t>
+  </si>
+  <si>
+    <t>malefactor</t>
+  </si>
+  <si>
+    <t>maleficent</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;pein&lt;/i&gt; (&amp;quot;place&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitpein</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>bisa</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ennak</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;bisa&lt;/i&gt; (&amp;quot;effect&amp;quot;) + &lt;i&gt;en&lt;/i&gt; (&amp;quot;circle&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;bisaen&lt;/i&gt; (&amp;quot;influence&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitbisa</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;bisa&lt;/i&gt; (&amp;quot;effect&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitsanwer</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;sanwer&lt;/i&gt; (&amp;quot;odor&amp;quot;)</t>
+  </si>
+  <si>
+    <t>bisain</t>
+  </si>
+  <si>
+    <t>haitbisain</t>
+  </si>
+  <si>
+    <t>nourished</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>rukun</t>
+  </si>
+  <si>
+    <t>ruktung</t>
+  </si>
+  <si>
+    <t>ruktuq</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;rukun&lt;/i&gt; (&amp;quot;to nourish&amp;quot;) + &lt;i&gt;-tun&lt;/i&gt; (&amp;quot;present passive form&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitruktung</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;ruktung&lt;/i&gt; (&amp;quot;nourished&amp;quot;)</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;ki&lt;/i&gt; (&amp;quot;machine&amp;quot;) + &lt;i&gt;nō&lt;/i&gt; (&amp;quot;function&amp;quot;)</t>
+  </si>
+  <si>
+    <t>kinō</t>
+  </si>
+  <si>
+    <t>kino-</t>
+  </si>
+  <si>
+    <t>haitkinō</t>
+  </si>
+  <si>
+    <t>haitkino-</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>kachi</t>
+  </si>
+  <si>
+    <t>kaci</t>
+  </si>
+  <si>
+    <t>haitkachi</t>
+  </si>
+  <si>
+    <t>haitkaci</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;kinō&lt;/i&gt; (&amp;quot;function&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;kachi&lt;/i&gt; (&amp;quot;form&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitshing</t>
+  </si>
+  <si>
+    <t>haitxiq</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>sanain</t>
+  </si>
+  <si>
+    <t>From Raccoon Language</t>
+  </si>
+  <si>
+    <t>haitsanain</t>
+  </si>
+  <si>
+    <t>haisanain</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;sanain&lt;/i&gt; (&amp;quot;practice&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;wan&lt;/i&gt; (&amp;quot;person&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haitwan</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>yarun</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;wan&lt;/i&gt; (&amp;quot;to do&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haityang</t>
+  </si>
+  <si>
+    <t>omniscient</t>
+  </si>
+  <si>
+    <t>omnipotent</t>
+  </si>
+  <si>
+    <t>omnipresent</t>
+  </si>
+  <si>
+    <t>omnipotence</t>
+  </si>
+  <si>
+    <t>omnivore</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>nourun</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;hait-&lt;/i&gt; (&amp;quot;bad&amp;quot;) + &lt;i&gt;shin&lt;/i&gt; (&amp;quot;state of&amp;quot;)</t>
+  </si>
+  <si>
+    <t>haityaq</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>irregular verb</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>tounun</t>
+  </si>
+  <si>
+    <t>tounbu</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;toun-&lt;/i&gt; (&amp;quot;move&amp;quot;) + &lt;i&gt;bu&lt;/i&gt; (&amp;quot;thing&amp;quot;)</t>
+  </si>
+  <si>
+    <t>lat-</t>
+  </si>
+  <si>
+    <t>latnoung</t>
+  </si>
+  <si>
+    <t>yon</t>
+  </si>
+  <si>
+    <t>latnouq</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;lat-&lt;/i&gt; (&amp;quot;all, omni-&amp;quot;) + &lt;i&gt;nourun&lt;/i&gt; (&amp;quot;to know&amp;quot;)</t>
+  </si>
+  <si>
+    <t>latfortanong</t>
+  </si>
+  <si>
+    <t>latfortanoq</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;lat-&lt;/i&gt; (&amp;quot;all, omni-&amp;quot;) + &lt;i&gt;fortanong&lt;/i&gt; (&amp;quot;Old Mampulan for strong&amp;quot;)</t>
+  </si>
+  <si>
+    <t>latbeng</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;lat-&lt;/i&gt; (&amp;quot;all, omni-&amp;quot;) + &lt;i&gt;ten&lt;/i&gt; (&amp;quot;Old Mampulan for strong&amp;quot;)</t>
+  </si>
+  <si>
+    <t>latnōng</t>
+  </si>
+  <si>
+    <t>latno-q</t>
+  </si>
+  <si>
+    <t>latkain tounbu</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;lat-&lt;/i&gt; (&amp;quot;all, omni-&amp;quot;) + &lt;i&gt;kainun&lt;/i&gt; (&amp;quot;to eat&amp;quot;) + &lt;i&gt;tounbu&lt;/i&gt; (&amp;quot;animal&amp;quot;)</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;las&lt;/i&gt; (&amp;quot;out&amp;quot;) + &lt;i&gt;duko&lt;/i&gt; (&amp;quot;blood&amp;quot;)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>bon</t>
+  </si>
+  <si>
+    <t>teke</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;te&lt;/i&gt; (&amp;quot;ten&amp;quot;) + &lt;i&gt;che&lt;/i&gt; (&amp;quot;hundred&amp;quot;)</t>
+  </si>
+  <si>
+    <t>From &lt;i&gt;teke&lt;/i&gt; (&amp;quot;thousand&amp;quot;)</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>daq</t>
+  </si>
+  <si>
+    <t>dang</t>
+  </si>
+  <si>
+    <t>dake</t>
+  </si>
+  <si>
+    <t>sung</t>
+  </si>
+  <si>
+    <t>suq</t>
+  </si>
+  <si>
+    <t>obokloq</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,17 +1585,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="48">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1174,11 +1720,251 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1602,11 +2388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FDFE4-4258-4B40-BFFF-C2968F726E9A}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1880,10 +2666,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1937,13 +2723,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1960,10 +2746,10 @@
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -1979,71 +2765,191 @@
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
+      <c r="B22" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>82</v>
+      <c r="B26" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -2052,44 +2958,44 @@
         <v>17</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>83</v>
@@ -2097,53 +3003,53 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -2152,145 +3058,178 @@
         <v>17</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>73</v>
@@ -2299,38 +3238,38 @@
         <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
@@ -2341,13 +3280,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
@@ -2356,38 +3295,38 @@
         <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>17</v>
@@ -2401,80 +3340,95 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>17</v>
@@ -2483,38 +3437,38 @@
         <v>17</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
@@ -2523,18 +3477,18 @@
         <v>17</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -2543,18 +3497,18 @@
         <v>17</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
@@ -2563,19 +3517,19 @@
         <v>17</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
@@ -2583,12 +3537,12 @@
         <v>17</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>30</v>
@@ -2603,49 +3557,49 @@
         <v>17</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
@@ -2656,13 +3610,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>17</v>
@@ -2671,58 +3625,58 @@
         <v>17</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>41</v>
@@ -2736,13 +3690,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>41</v>
@@ -2751,38 +3705,38 @@
         <v>42</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>17</v>
@@ -2791,18 +3745,18 @@
         <v>17</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
@@ -2813,13 +3767,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>73</v>
@@ -2828,18 +3782,18 @@
         <v>76</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>17</v>
@@ -2853,13 +3807,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
@@ -2868,18 +3822,18 @@
         <v>17</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
@@ -2893,13 +3847,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>17</v>
@@ -2913,13 +3867,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>17</v>
@@ -2933,33 +3887,33 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>17</v>
@@ -2968,18 +3922,18 @@
         <v>17</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>73</v>
@@ -2988,18 +3942,18 @@
         <v>77</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>73</v>
@@ -3008,18 +3962,18 @@
         <v>77</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>73</v>
@@ -3028,15 +3982,18 @@
         <v>76</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -3050,10 +4007,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>73</v>
@@ -3067,10 +4027,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>73</v>
@@ -3084,10 +4047,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>73</v>
@@ -3101,10 +4067,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>73</v>
@@ -3118,10 +4087,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>73</v>
@@ -3135,10 +4107,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>73</v>
@@ -3152,10 +4127,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>73</v>
@@ -3169,10 +4147,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>73</v>
@@ -3186,10 +4167,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>73</v>
@@ -3198,18 +4182,18 @@
         <v>76</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>17</v>
@@ -3223,36 +4207,36 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>307</v>
+        <v>494</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>17</v>
@@ -3261,29 +4245,1151 @@
         <v>17</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K116"/>
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A77 A80:A1048576 A2:A35">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:A116">
+    <cfRule type="duplicateValues" dxfId="40" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="34" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A148 A80:A114 A38:A77 A2:A36 A150:A1048576">
+    <cfRule type="duplicateValues" dxfId="28" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B78 B81:B1048576">
+  <conditionalFormatting sqref="B115:B116">
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="duplicateValues" dxfId="17" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B1048576 B81:B114 B1:B78">
+    <cfRule type="duplicateValues" dxfId="12" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:C110">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3296,8 +5402,8 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3315,135 +5421,135 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3451,304 +5557,304 @@
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
